--- a/biology/Médecine/Vertex_Pharmaceuticals/Vertex_Pharmaceuticals.xlsx
+++ b/biology/Médecine/Vertex_Pharmaceuticals/Vertex_Pharmaceuticals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vertex Pharmaceuticals, Inc est un laboratoire de biotechnologie international spécialisé dans la recherche scientifique et le développement de médicaments innovants contre les maladies graves, avec des traitements disponibles dans la mucoviscidose. Fondé en 1989 à Cambridge, dans le Massachussetts, aux États-Unis, le siège social monde de Vertex se trouve aujourd’hui dans l’Innovation District de Boston. Son siège international est basé à Londres. Le laboratoire possède des centres de recherche et de développement et des filiales opérationnelles aux États-Unis, en Europe, au Canada, en Australie et en Amérique Latine.
@@ -512,16 +524,18 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vertex a été fondé en 1989 par le Dr Joshua Borger[2] et Kevin J. Kinsella[3], la même année que la découverte du gène et de la protéine CFTR (Cystic Fibrosis Transmembrane conductance Regulator) responsables de la mucoviscidose. Les deux hommes privilégient une approche différente dans le développement des thérapies : il ne s’agit plus simplement de s’intéresser à la découverte de principes actifs chimiques capables de guérir une pathologie ou d’atténuer ses symptômes mais de trouver de nouveaux médicaments sur la base de la connaissance d’une cible biologique.[réf. nécessaire]
-Les débuts du laboratoire ont été décrits par Barry Werth dans son livre The Billion-Dollar Molecule[3], publié en 1994 et sont développés dans son livre de 2014, The Antidote : Inside the World New Pharma[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vertex a été fondé en 1989 par le Dr Joshua Borger et Kevin J. Kinsella, la même année que la découverte du gène et de la protéine CFTR (Cystic Fibrosis Transmembrane conductance Regulator) responsables de la mucoviscidose. Les deux hommes privilégient une approche différente dans le développement des thérapies : il ne s’agit plus simplement de s’intéresser à la découverte de principes actifs chimiques capables de guérir une pathologie ou d’atténuer ses symptômes mais de trouver de nouveaux médicaments sur la base de la connaissance d’une cible biologique.[réf. nécessaire]
+Les débuts du laboratoire ont été décrits par Barry Werth dans son livre The Billion-Dollar Molecule, publié en 1994 et sont développés dans son livre de 2014, The Antidote : Inside the World New Pharma.
 En 2001, Vertex Pharmaceuticals acquiert la société de biotechnologie Aurora Biosciences située à San Diego (Californie) qui avait noué en 2000 un partenariat sur cinq ans avec la Cystic Fibrosis Foundation pour développer des médicaments candidats pour soigner la mucoviscidose. Un partenariat qui a été poursuivi et développé par Vertex Pharmaceuticals au cours de ces vingt dernières années.
-En 2009, l'entreprise comptait environ 1 800 employés, dont 1 200 dans la région de Boston[5]. En 2020, elle comptait environ 3 500 employés[6].
-Depuis fin 2011, Vertex se classe parmi les 15 entreprises les plus performantes du Standard &amp; Poor's 500. Les actions de Vertex ont augmenté de 250 % au cours de la même période[7]. En janvier 2014, Vertex a achevé son déménagement de Cambridge (Massachusetts) à Boston (Massachusetts) et s'est installé dans un nouveau complexe situé sur le front de mer de Boston Sud. C'est la première fois dans l'histoire de la société que les quelque 1 200 employés de la région du Grand Boston travaillent au sein d’un même complexe[5].
-En juin 2019, Vertex annonce vouloir acquérir Exonics Therapeutics pour un montant allant jusqu'à un milliard de dollars et annonce en parallèle collaborer avec CRISPR Therapeutics, pour stimuler le développement de traitements contre la myopathie de Duchenne et la dystrophie myotonique de type 1[8],[9]. Vertex et CRISPR Therapeutics étaient déjà en collaboration depuis 2015 pour des projets de recherche notamment dans des maladies du sang.
-En septembre 2019, le laboratoire annonce acquérir Semma Therapeutics, une biotech américaine spécialisée dans le traitement du diabète de type 1, pour 950 millions de dollars. Ce rapprochement a pour vocation de développer le dispositif implantable mis au point par Semma Therapeutics, à base de cellules bêta de remplacement laissant passer le glucose et l'insuline, mais empêchant les cellules immunitaires d'entrer[10].
-Le 1er avril 2020, Reshma Kewalramani, jusqu’alors Directrice médicale, devient Directrice générale de Vertex Pharmaceuticals[11]. Elle remplace Jeffrey Leiden, qui occupe dorénavant le poste de Président exécutif et de Président du conseil d'administration. Le Dr Leiden assumera la fonction de Président exécutif jusqu'en avril 2023[12].
+En 2009, l'entreprise comptait environ 1 800 employés, dont 1 200 dans la région de Boston. En 2020, elle comptait environ 3 500 employés.
+Depuis fin 2011, Vertex se classe parmi les 15 entreprises les plus performantes du Standard &amp; Poor's 500. Les actions de Vertex ont augmenté de 250 % au cours de la même période. En janvier 2014, Vertex a achevé son déménagement de Cambridge (Massachusetts) à Boston (Massachusetts) et s'est installé dans un nouveau complexe situé sur le front de mer de Boston Sud. C'est la première fois dans l'histoire de la société que les quelque 1 200 employés de la région du Grand Boston travaillent au sein d’un même complexe.
+En juin 2019, Vertex annonce vouloir acquérir Exonics Therapeutics pour un montant allant jusqu'à un milliard de dollars et annonce en parallèle collaborer avec CRISPR Therapeutics, pour stimuler le développement de traitements contre la myopathie de Duchenne et la dystrophie myotonique de type 1,. Vertex et CRISPR Therapeutics étaient déjà en collaboration depuis 2015 pour des projets de recherche notamment dans des maladies du sang.
+En septembre 2019, le laboratoire annonce acquérir Semma Therapeutics, une biotech américaine spécialisée dans le traitement du diabète de type 1, pour 950 millions de dollars. Ce rapprochement a pour vocation de développer le dispositif implantable mis au point par Semma Therapeutics, à base de cellules bêta de remplacement laissant passer le glucose et l'insuline, mais empêchant les cellules immunitaires d'entrer.
+Le 1er avril 2020, Reshma Kewalramani, jusqu’alors Directrice médicale, devient Directrice générale de Vertex Pharmaceuticals. Elle remplace Jeffrey Leiden, qui occupe dorénavant le poste de Président exécutif et de Président du conseil d'administration. Le Dr Leiden assumera la fonction de Président exécutif jusqu'en avril 2023.
 </t>
         </is>
       </c>
@@ -552,18 +566,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Engagement dans la mucoviscidose
-La découverte en 1989 du gène CFTR (Cystic Fibrosis Transmembrane Conductance Regulator) constitue un tournant dans la compréhension de la maladie. Ce gène code la protéine CFTR qui s’exprime dans les tissus épithéliaux de nombreux organes. Le rôle de cette protéine est d’excréter les ions chlorure hors de la cellule.
+          <t>Engagement dans la mucoviscidose</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte en 1989 du gène CFTR (Cystic Fibrosis Transmembrane Conductance Regulator) constitue un tournant dans la compréhension de la maladie. Ce gène code la protéine CFTR qui s’exprime dans les tissus épithéliaux de nombreux organes. Le rôle de cette protéine est d’excréter les ions chlorure hors de la cellule.
 Chez les personnes atteintes de mucoviscidose, la fonction de la protéine CFTR est altérée. En conséquence, les ions chlorure sont retenus à l’intérieur de la cellule, ce qui entraîne une moindre hydratation du mucus qui recouvre les cellules, et donc une plus grande viscosité – phénomène dont la mucoviscidose tire son nom. D’où la salinité accrue de la transpiration, observée de longue date.
-Plus de 2 000 altérations[13] du gène CFTR ont été rapportées par la littérature scientifique.
-Selon le registre français de la mucoviscidose[14], 82,4 % des patients sont porteurs de la mutation F508del du gène CFTR, dont 41 % de manière homozygote (les deux copies du gène sont porteuses de F508del) et 41,4 % de manière hétérozygote (une seule copie est porteuse de cette mutation, l’autre portant une mutation différente).
+Plus de 2 000 altérations du gène CFTR ont été rapportées par la littérature scientifique.
+Selon le registre français de la mucoviscidose, 82,4 % des patients sont porteurs de la mutation F508del du gène CFTR, dont 41 % de manière homozygote (les deux copies du gène sont porteuses de F508del) et 41,4 % de manière hétérozygote (une seule copie est porteuse de cette mutation, l’autre portant une mutation différente).
 Les médicaments développés par Vertex Pharmaceuticals agissent directement sur la protéine CFTR affectée et agissent ainsi non pas sur les symptômes mais sur la cause de la maladie.
-Plusieurs médecins[15] se sont plaints du prix très élevé des médicaments destinés au traitement de la mucovicidose, mis sur le marché par la société Vertex, notamment le Kaftrio. Le montant d'un traitement annuel de ce médicament pour un patient atteint presque 200 000 euros par an. Des études estiment que le coût réel de production du médicament serait de 5 300 euros[16].
-Thérapies géniques
-En 2015, Vertex s'engage dans une collaboration de recherche avec CRISPR Therapeutics pour développer des thérapies d'édition génomique pour soigner les maladies génétiques[17]. En mai 2020, CTX001 reçoit la désignation de médicament orphelin de la Food and Drug Administration américaine pour la bêta-thalassémie dépendante des transfusions et de l'Agence européenne des médicaments pour la drépanocytose et la bêta-thalassémie dépendante des transfusions[18].
-En 2016, la société conclut une collaboration avec Moderna pour développer de nouvelles thérapies à base d'ARNm pour traiter la mucoviscidose ; Vertex a payé 20 millions de dollars à Moderna et fourni 20 millions de dollars supplémentaires. Vertex a également promis de verser jusqu'à 275 millions de dollars en paiements d'étape[19].
-En 2019, Vertex annonce une collaboration de recherche avec Arbor Biotechnologies pour découvrir de nouvelles protéines afin de faire progresser le développement de nouvelles thérapies d'édition génomique contre la mucoviscidose et quatre autres maladies[20].
-Le portefeuille de produits de Vertex comprend des médicaments ciblant des maladies spécialisées comme la drépanocytose, la bêta-thalassémie, la dystrophie musculaire de Duchenne, le déficit en alpha-1-antitrypsine, la douleur et les maladies rénales à médiation APOL1[21].</t>
+Plusieurs médecins se sont plaints du prix très élevé des médicaments destinés au traitement de la mucovicidose, mis sur le marché par la société Vertex, notamment le Kaftrio. Le montant d'un traitement annuel de ce médicament pour un patient atteint presque 200 000 euros par an. Des études estiment que le coût réel de production du médicament serait de 5 300 euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vertex_Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vertex_Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Thérapies géniques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2015, Vertex s'engage dans une collaboration de recherche avec CRISPR Therapeutics pour développer des thérapies d'édition génomique pour soigner les maladies génétiques. En mai 2020, CTX001 reçoit la désignation de médicament orphelin de la Food and Drug Administration américaine pour la bêta-thalassémie dépendante des transfusions et de l'Agence européenne des médicaments pour la drépanocytose et la bêta-thalassémie dépendante des transfusions.
+En 2016, la société conclut une collaboration avec Moderna pour développer de nouvelles thérapies à base d'ARNm pour traiter la mucoviscidose ; Vertex a payé 20 millions de dollars à Moderna et fourni 20 millions de dollars supplémentaires. Vertex a également promis de verser jusqu'à 275 millions de dollars en paiements d'étape.
+En 2019, Vertex annonce une collaboration de recherche avec Arbor Biotechnologies pour découvrir de nouvelles protéines afin de faire progresser le développement de nouvelles thérapies d'édition génomique contre la mucoviscidose et quatre autres maladies.
+Le portefeuille de produits de Vertex comprend des médicaments ciblant des maladies spécialisées comme la drépanocytose, la bêta-thalassémie, la dystrophie musculaire de Duchenne, le déficit en alpha-1-antitrypsine, la douleur et les maladies rénales à médiation APOL1.</t>
         </is>
       </c>
     </row>
